--- a/docs/testcases-ask-olly.xlsx
+++ b/docs/testcases-ask-olly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chungthan/Documents/QC/Automation/everfit-playwright-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4469EC-D559-F248-AD97-1FE5C0BB97B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B166EC-9492-2747-A906-50559F71B788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,11 +141,6 @@
     <t>Chat session is currently open</t>
   </si>
   <si>
-    <t>1. Send an chat message 
-2. At the chat screen, Click New Chat icon
-2. System shows a popup -&gt; Click OK</t>
-  </si>
-  <si>
     <t>- Chat box is reset
 - Input field is cleared</t>
   </si>
@@ -359,9 +354,6 @@
 3. Send</t>
   </si>
   <si>
-    <t>- The client name exactly once: it show Client Test</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -381,6 +373,14 @@
   </si>
   <si>
     <t>PASS - Verify creating a new chat (OK)</t>
+  </si>
+  <si>
+    <t>1. Send an chat message 
+2. At the chat screen, Click New Chat icon
+3. System shows a popup -&gt; Click OK</t>
+  </si>
+  <si>
+    <t>In the question has Client Test</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -847,248 +847,248 @@
         <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="70" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1131,10 +1131,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1142,7 +1142,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1150,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1158,7 +1158,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1166,15 +1166,15 @@
         <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/testcases-ask-olly.xlsx
+++ b/docs/testcases-ask-olly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chungthan/Documents/QC/Automation/everfit-playwright-starter/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B166EC-9492-2747-A906-50559F71B788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418F34B-F62D-2441-9055-15DBE278C23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -416,6 +416,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -431,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -454,11 +461,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -475,6 +493,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,10 +717,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1090,6 +1112,10 @@
       <c r="E26" s="4" t="s">
         <v>105</v>
       </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
